--- a/rawbarsonly/bars.xlsx
+++ b/rawbarsonly/bars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julian/Desktop/Programming Projects/art369/rawbarsonly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C523AB2B-0390-E548-BDBD-68414887B68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B769F01F-E6FB-114E-B7E1-B96FB263FD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="900" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bars" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
   <si>
     <t>Bar</t>
   </si>
@@ -794,6 +794,79 @@
   </si>
   <si>
     <t>Song Id</t>
+  </si>
+  <si>
+    <t>Get in with Me</t>
+  </si>
+  <si>
+    <t>BossMan Dlow</t>
+  </si>
+  <si>
+    <t>Jan. 19, 2024</t>
+  </si>
+  <si>
+    <t>I was bad as fuck in school, now I'm tryna dodge a sentence</t>
+  </si>
+  <si>
+    <t>I'm drivin' the Bentley Bentayga like I don't love my life (Skrrt)</t>
+  </si>
+  <si>
+    <t>[Intro]
+Big Za
+Yeah
+Gram
+(Dxnte, you snapped on this one)
+Uh, uh
+[Chorus]
+I was bad as fuck in school, now I'm tryna dodge a sentence
+Just walked out the Lanvin store, pair of shoes, twelve-fifty (Nigga)
+You wanna boss up your life? All you gotta do is get in with me (Come here, baby)
+I don't even pay to get in the club, they know I'm a walkin' ticket
+I'm presidential leavin' the club, we ain't stoppin' at no lights (Yoom)
+You wanna be a boss, you gotta pay the price (Facts)
+Left wrist on frost, look like a bag of ice (Bling)
+I'm drivin' the Bentley Bentayga like I don't love my life (Skrrt)
+[Verse]
+I'm in that thing shiftin' and I'm lane-switchin' (Yoom)
+Bitch, it's Big Za, I'ma stand on straight business (Big Za)
+Uh, dunkin' on niggas' ass like Blake Griffin (Rrr)
+He keep talkin', bro gon' leave his face missing (Brrt)
+Bae, these Off-White, these ain't no Huarache (No Huarache, baby)
+Bad bitch, fiftieth floor, eatin' hibachi (Come here, baby)
+I got ten missed calls, all my bitches mad at me
+Valet park, designer district, I'm goin' straight to Gallery
+Juggs fiendin', yep (Yep)
+Phone ringin', yep (Brrt)
+Niggas hatin', yep (Nigga)
+Jewelry blingin', yep (Bling)
+Juggs fiendin', yep (Brrt)
+Phone ringin', yep (Yep)
+Niggas hatin', yep (Nigga)
+Jewelry blingin', yep (Bling)
+See upcoming rap shows
+Get tickets for your favorite artists
+You might also like
+Forever
+Noah Kahan
+Big Foot (A Cappella)
+Nicki Minaj
+Big Foot
+Nicki Minaj
+[Chorus]
+I was bad as fuck in school, now I'm tryna dodge a sentence
+Just walked out the Lanvin store, pair of shoes, twelve-fifty (Nigga)
+You wanna boss up your life? All you gotta do is get in with me (Come here, baby)
+I don't even pay to get in the club, they know I'm a walkin' ticket
+I'm presidential leavin' the club, we ain't stoppin' at no lights (Yoom)
+You wanna be a boss, you gotta pay the price (Facts)
+Left wrist on frost, look like a bag of ice (Bling)
+I'm drivin' the Bentley Bentayga like I don't love my life (Skrrt)</t>
+  </si>
+  <si>
+    <t>It's a pun. He sucked at school, so he could hardly form sentences as a kid; as an adult, he might be facing a prison sentence.</t>
+  </si>
+  <si>
+    <t>He's driving his luxury SUV recklessly, as if he doesn't care if he crashes and dies.</t>
   </si>
 </sst>
 </file>
@@ -1665,10 +1738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="B1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1908,7 +1981,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>45</v>
@@ -1928,7 +2001,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>49</v>
@@ -1948,7 +2021,7 @@
         <v>52</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>53</v>
@@ -1958,6 +2031,46 @@
       </c>
       <c r="F14" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1967,10 +2080,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="69" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1981,25 +2094,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2026,7 +2139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2043,7 +2156,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2060,7 +2173,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2077,7 +2190,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2160,6 +2273,23 @@
       </c>
       <c r="E10" s="1" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
